--- a/docs/user study/results/UX 2_Affinity Notes.xlsx
+++ b/docs/user study/results/UX 2_Affinity Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Varma\Documents\GitHub\MSAT-UI\docs\user study\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615CD340-4CAC-48D2-A082-E027434272E0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336A9FEF-AA69-4C9C-B116-3563AFCAE0C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{9B027435-55FA-4B4B-A6E7-EE42D17C7948}"/>
+    <workbookView xWindow="-4335" yWindow="-18120" windowWidth="29040" windowHeight="18240" activeTab="3" xr2:uid="{9B027435-55FA-4B4B-A6E7-EE42D17C7948}"/>
   </bookViews>
   <sheets>
     <sheet name="Research Question 1" sheetId="1" r:id="rId1"/>
@@ -362,9 +362,6 @@
     <t>User suggests to have a popup for icons so to know the tool name.</t>
   </si>
   <si>
-    <t>Soluton Idea - Seperate Icons</t>
-  </si>
-  <si>
     <t>User suggests to have tool icons at project structure beside filename.</t>
   </si>
   <si>
@@ -381,6 +378,9 @@
   </si>
   <si>
     <t>"Research … stepping in right direction. "</t>
+  </si>
+  <si>
+    <t>Soluton Idea - Seperate Icons / Multiple Icons</t>
   </si>
 </sst>
 </file>
@@ -745,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CACCBFB9-03EC-4421-9C7A-54E672DD7ADA}">
   <dimension ref="A2:C61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1184,7 +1184,7 @@
         <v>2.071759259259259E-2</v>
       </c>
       <c r="C57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1195,7 +1195,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1206,7 +1206,7 @@
         <v>1.909722222222222E-2</v>
       </c>
       <c r="C59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1217,7 +1217,7 @@
         <v>2.2916666666666669E-2</v>
       </c>
       <c r="C60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1228,7 +1228,7 @@
         <v>2.8935185185185185E-2</v>
       </c>
       <c r="C61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1240,7 +1240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8493E3-0B5E-41E5-9BD5-DAB3E35FA19D}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
@@ -1607,7 +1607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A4E722-582F-4212-BFE2-81BDEBAB6768}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
@@ -1983,7 +1983,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2033,7 +2033,7 @@
         <v>4.1782407407407407E-2</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
